--- a/Automation testcases.xlsx
+++ b/Automation testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar\Desktop\ahmed khaled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1E2EC-57E2-447F-ACB7-3E6B882194B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D173A16A-E544-4C5D-89C4-A7A0A2A4366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DECB612D-54AC-4870-BE79-FECD6E529F31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>N/A(Empty inputs)</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,6 +319,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A55BB9-453A-4BDA-9737-E50A51E5FA66}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1028,9 @@
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
